--- a/GUI/Data/SABR Plan Evaluation Worksheet BLANK.xlsx
+++ b/GUI/Data/SABR Plan Evaluation Worksheet BLANK.xlsx
@@ -4389,11 +4389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72437696"/>
-        <c:axId val="72438272"/>
+        <c:axId val="259740160"/>
+        <c:axId val="259740736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72437696"/>
+        <c:axId val="259740160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="165"/>
@@ -4483,12 +4483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72438272"/>
+        <c:crossAx val="259740736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72438272"/>
+        <c:axId val="259740736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -4586,7 +4586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72437696"/>
+        <c:crossAx val="259740160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5074,7 +5074,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
